--- a/rate conformation.xlsx
+++ b/rate conformation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="200">
   <si>
     <t>vishalsingh</t>
   </si>
@@ -553,6 +553,83 @@
   </si>
   <si>
     <t>Prashant</t>
+  </si>
+  <si>
+    <t>daniel@indutechinc.com</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Mayo Clinic</t>
+  </si>
+  <si>
+    <t>Eau Claire, Wisconsin</t>
+  </si>
+  <si>
+    <t>Vijay.Jaiswal@pyramidci.com</t>
+  </si>
+  <si>
+    <t>nivas@ecloudlabsinc.com</t>
+  </si>
+  <si>
+    <t>Srinivas</t>
+  </si>
+  <si>
+    <t>yamini.rai@conceptol.com</t>
+  </si>
+  <si>
+    <t>Yamini</t>
+  </si>
+  <si>
+    <t>Mayo clinic, MN</t>
+  </si>
+  <si>
+    <t>avanish.pandey@intime-info.com</t>
+  </si>
+  <si>
+    <t>avinish Pande</t>
+  </si>
+  <si>
+    <t>Dominos</t>
+  </si>
+  <si>
+    <t>Shoeb.Khan@artechinfo.com</t>
+  </si>
+  <si>
+    <t>Accenture/State farm</t>
+  </si>
+  <si>
+    <t>Shoeb</t>
+  </si>
+  <si>
+    <t>Salman@its-incorp.com</t>
+  </si>
+  <si>
+    <t>salman</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>State of North Carolina</t>
+    </r>
+  </si>
+  <si>
+    <t>haritha.kotha@themesoft.com</t>
+  </si>
+  <si>
+    <t>Haritha</t>
+  </si>
+  <si>
+    <t>CTS</t>
   </si>
 </sst>
 </file>
@@ -562,7 +639,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,6 +707,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -652,7 +742,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -667,6 +757,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -948,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J134"/>
+  <dimension ref="B3:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="H139" sqref="H139"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,7 +1955,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>172</v>
       </c>
@@ -1878,7 +1969,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>175</v>
       </c>
@@ -1889,7 +1980,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>177</v>
       </c>
@@ -1901,6 +1992,112 @@
       </c>
       <c r="H134" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>179</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G136">
+        <v>40</v>
+      </c>
+      <c r="H136" t="s">
+        <v>180</v>
+      </c>
+      <c r="I136" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>159</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>184</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G140">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>186</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G142">
+        <v>40</v>
+      </c>
+      <c r="H142" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>189</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G144">
+        <v>42</v>
+      </c>
+      <c r="H144" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>193</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G146">
+        <v>40</v>
+      </c>
+      <c r="H146" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>195</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G148">
+        <v>52</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>198</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G150">
+        <v>57</v>
+      </c>
+      <c r="H150" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1970,8 +2167,16 @@
     <hyperlink ref="D130" r:id="rId63" display="mailto:sumits@charterglobal.com"/>
     <hyperlink ref="D132" r:id="rId64" display="mailto:lovdhir@zodiac-solutions.com"/>
     <hyperlink ref="D134" r:id="rId65" display="mailto:pchauhan@cynosuretechnologies.com"/>
+    <hyperlink ref="D136" r:id="rId66" display="mailto:daniel@indutechinc.com"/>
+    <hyperlink ref="D138" r:id="rId67" display="mailto:Vijay.Jaiswal@pyramidci.com"/>
+    <hyperlink ref="D140" r:id="rId68"/>
+    <hyperlink ref="D142" r:id="rId69" display="mailto:yamini.rai@conceptol.com"/>
+    <hyperlink ref="D144" r:id="rId70" display="mailto:rajesh.behra@intime-info.com"/>
+    <hyperlink ref="D146" r:id="rId71"/>
+    <hyperlink ref="D148" r:id="rId72" display="mailto:Salman@its-incorp.com"/>
+    <hyperlink ref="D150" r:id="rId73" display="mailto:haritha.kotha@themesoft.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId66"/>
+  <pageSetup orientation="portrait" r:id="rId74"/>
 </worksheet>
 </file>